--- a/Fase III - Informes/Informacion subida a SC/Estado de cambios en el patrimonio.xlsx
+++ b/Fase III - Informes/Informacion subida a SC/Estado de cambios en el patrimonio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\Grafimpac\Fase III - Informes\Informacion subida a SC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D1AE7-ED9C-431E-B387-372F713959E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AABC614-78DE-4AAE-8E2F-D2B8D1DDDFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{164310A0-5A6E-4AD3-9558-4F2217D12BD6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>NOMBRE ENTIDAD CONTROLADORA:</t>
   </si>
@@ -1302,6 +1302,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1386,45 +1425,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1823,11 +1823,11 @@
   <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
       <selection pane="topRight" activeCell="B12" sqref="B12"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2205,13 +2205,13 @@
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="131"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="105"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -2226,7 +2226,7 @@
       <c r="T6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="106" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="14"/>
@@ -2240,21 +2240,21 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="S7" s="135" t="s">
+      <c r="S7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="T7" s="136"/>
+      <c r="T7" s="110"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="132"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -2280,7 +2280,7 @@
       <c r="T8" s="25"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="133"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2309,13 +2309,13 @@
       <c r="A10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="128"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -2333,13 +2333,13 @@
       <c r="A11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="128"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -2354,28 +2354,28 @@
       <c r="T11" s="13"/>
     </row>
     <row r="12" spans="1:26" s="34" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="103"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="114"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -2407,69 +2407,69 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="106" t="s">
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="109" t="s">
+      <c r="T14" s="120" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="106" t="s">
+      <c r="D15" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="112" t="s">
+      <c r="E15" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115" t="s">
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="115" t="s">
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="116"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="115" t="s">
+      <c r="N15" s="127"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="118" t="s">
+      <c r="Q15" s="128"/>
+      <c r="R15" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="107"/>
-      <c r="T15" s="110"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="121"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -2481,9 +2481,9 @@
       <c r="A16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="42" t="s">
         <v>23</v>
       </c>
@@ -2523,9 +2523,9 @@
       <c r="Q16" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="R16" s="119"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="111"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="122"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
@@ -2626,73 +2626,79 @@
       </c>
       <c r="B19" s="56">
         <f>+B21+B29</f>
-        <v>0</v>
+        <v>1608300</v>
       </c>
       <c r="C19" s="56">
-        <f t="shared" ref="C19:S19" si="0">+C21+C29</f>
+        <f t="shared" ref="C19:F19" si="0">+C21+C29</f>
         <v>0</v>
       </c>
       <c r="D19" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="E19" s="56">
+        <f t="shared" si="0"/>
+        <v>713799</v>
+      </c>
+      <c r="F19" s="56">
+        <f t="shared" si="0"/>
+        <v>6999</v>
+      </c>
       <c r="G19" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C19:S19" si="1">+G21+G29</f>
         <v>0</v>
       </c>
       <c r="H19" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>27786</v>
       </c>
       <c r="K19" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L19" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>62102</v>
       </c>
       <c r="M19" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8921445</v>
       </c>
       <c r="N19" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O19" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>971339</v>
       </c>
       <c r="P19" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1154148</v>
       </c>
       <c r="Q19" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R19" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S19" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T19" s="57">
-        <f t="shared" ref="T19:T22" si="1">SUM(B19:S19)</f>
-        <v>0</v>
+        <f t="shared" ref="T19:T22" si="2">SUM(B19:S19)</f>
+        <v>13465918</v>
       </c>
       <c r="U19" s="58">
         <v>99</v>
@@ -2727,79 +2733,79 @@
       </c>
       <c r="B21" s="65">
         <f>+B23</f>
-        <v>0</v>
+        <v>1608300</v>
       </c>
       <c r="C21" s="65">
-        <f t="shared" ref="C21:S21" si="2">+C23</f>
+        <f t="shared" ref="C21:S21" si="3">+C23</f>
         <v>0</v>
       </c>
       <c r="D21" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="65">
+        <f t="shared" si="3"/>
+        <v>619401</v>
+      </c>
+      <c r="F21" s="65">
+        <f t="shared" si="3"/>
+        <v>6999</v>
+      </c>
+      <c r="G21" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="65">
+        <f t="shared" si="3"/>
+        <v>27786</v>
+      </c>
+      <c r="K21" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="65">
+        <f t="shared" si="3"/>
+        <v>64643</v>
+      </c>
+      <c r="M21" s="65">
+        <f t="shared" si="3"/>
+        <v>6771100</v>
+      </c>
+      <c r="N21" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="65">
+        <f t="shared" si="3"/>
+        <v>971339</v>
+      </c>
+      <c r="P21" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="68">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10069568</v>
       </c>
       <c r="U21" s="69">
         <v>9901</v>
@@ -2826,7 +2832,7 @@
       <c r="R22" s="61"/>
       <c r="S22" s="71"/>
       <c r="T22" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U22" s="63"/>
@@ -2835,27 +2841,42 @@
       <c r="A23" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="74">
+        <v>1608300</v>
+      </c>
       <c r="C23" s="74"/>
       <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
+      <c r="E23" s="74">
+        <v>619401</v>
+      </c>
+      <c r="F23" s="74">
+        <v>6999</v>
+      </c>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
       <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
+      <c r="J23" s="74">
+        <v>27786</v>
+      </c>
       <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
+      <c r="L23" s="74">
+        <v>64643</v>
+      </c>
+      <c r="M23" s="74">
+        <f>7834868-27786-971339-64643</f>
+        <v>6771100</v>
+      </c>
       <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
+      <c r="O23" s="74">
+        <v>971339</v>
+      </c>
       <c r="P23" s="74"/>
       <c r="Q23" s="74"/>
       <c r="R23" s="66"/>
       <c r="S23" s="67"/>
       <c r="T23" s="68">
         <f>SUM(B23:S23)</f>
-        <v>0</v>
+        <v>10069568</v>
       </c>
       <c r="U23" s="69">
         <v>990101</v>
@@ -3021,76 +3042,76 @@
         <v>0</v>
       </c>
       <c r="C29" s="79">
-        <f t="shared" ref="C29:S29" si="3">SUM(C30:C39)</f>
+        <f t="shared" ref="C29:S29" si="4">SUM(C30:C39)</f>
         <v>0</v>
       </c>
       <c r="D29" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E29" s="79">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>94398</v>
       </c>
       <c r="F29" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G29" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H29" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I29" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J29" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K29" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L29" s="79">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-2541</v>
       </c>
       <c r="M29" s="79">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2150345</v>
       </c>
       <c r="N29" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O29" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P29" s="79">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1154148</v>
       </c>
       <c r="Q29" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R29" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S29" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T29" s="68">
         <f>SUM(B29:S29)</f>
-        <v>0</v>
+        <v>3396350</v>
       </c>
       <c r="U29" s="69">
         <v>9902</v>
@@ -3239,8 +3260,8 @@
       <c r="B34" s="74"/>
       <c r="C34" s="74"/>
       <c r="D34" s="74"/>
-      <c r="E34" s="74" t="s">
-        <v>2</v>
+      <c r="E34" s="74">
+        <v>94398</v>
       </c>
       <c r="F34" s="74" t="s">
         <v>2</v>
@@ -3253,8 +3274,8 @@
       <c r="J34" s="74"/>
       <c r="K34" s="74"/>
       <c r="L34" s="74"/>
-      <c r="M34" s="74" t="s">
-        <v>4</v>
+      <c r="M34" s="74">
+        <v>-94398</v>
       </c>
       <c r="N34" s="74"/>
       <c r="O34" s="74"/>
@@ -3409,8 +3430,9 @@
       <c r="L38" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="M38" s="74" t="s">
-        <v>6</v>
+      <c r="M38" s="74">
+        <f>2172254+72489</f>
+        <v>2244743</v>
       </c>
       <c r="N38" s="74" t="s">
         <v>6</v>
@@ -3447,12 +3469,14 @@
       <c r="I39" s="74"/>
       <c r="J39" s="74"/>
       <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
+      <c r="L39" s="74">
+        <v>-2541</v>
+      </c>
       <c r="M39" s="74"/>
       <c r="N39" s="74"/>
       <c r="O39" s="74"/>
-      <c r="P39" s="74" t="s">
-        <v>2</v>
+      <c r="P39" s="74">
+        <v>1154148</v>
       </c>
       <c r="Q39" s="74"/>
       <c r="R39" s="66">
@@ -3461,7 +3485,7 @@
       <c r="S39" s="67"/>
       <c r="T39" s="68">
         <f>SUM(B39:S39)</f>
-        <v>0</v>
+        <v>1151607</v>
       </c>
       <c r="U39" s="82">
         <v>990210</v>
@@ -3491,28 +3515,28 @@
       <c r="U40" s="86"/>
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="120" t="s">
+      <c r="A41" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="121"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="121"/>
-      <c r="N41" s="121"/>
-      <c r="O41" s="121"/>
-      <c r="P41" s="121"/>
-      <c r="Q41" s="121"/>
-      <c r="R41" s="121"/>
-      <c r="S41" s="121"/>
-      <c r="T41" s="122"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="132"/>
+      <c r="P41" s="132"/>
+      <c r="Q41" s="132"/>
+      <c r="R41" s="132"/>
+      <c r="S41" s="132"/>
+      <c r="T41" s="133"/>
       <c r="U41" s="87"/>
       <c r="V41" s="87"/>
       <c r="W41" s="87"/>
@@ -3530,28 +3554,28 @@
       <c r="AI41" s="88"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A42" s="123" t="s">
+      <c r="A42" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
-      <c r="O42" s="124"/>
-      <c r="P42" s="124"/>
-      <c r="Q42" s="124"/>
-      <c r="R42" s="124"/>
-      <c r="S42" s="124"/>
-      <c r="T42" s="125"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="135"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="135"/>
+      <c r="N42" s="135"/>
+      <c r="O42" s="135"/>
+      <c r="P42" s="135"/>
+      <c r="Q42" s="135"/>
+      <c r="R42" s="135"/>
+      <c r="S42" s="135"/>
+      <c r="T42" s="136"/>
       <c r="U42" s="89"/>
       <c r="V42" s="89"/>
       <c r="W42" s="89"/>
@@ -3772,13 +3796,13 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="92"/>
-      <c r="B52" s="100" t="s">
+      <c r="B52" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="100"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
       <c r="G52" s="84"/>
       <c r="H52" s="84"/>
       <c r="I52" s="84"/>
@@ -3798,10 +3822,10 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="92"/>
-      <c r="B53" s="100" t="s">
+      <c r="B53" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="100"/>
+      <c r="C53" s="111"/>
       <c r="D53" s="93"/>
       <c r="E53" s="93"/>
       <c r="F53" s="93"/>
@@ -4035,12 +4059,6 @@
     <row r="65" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B10:H10"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="A12:T12"/>
     <mergeCell ref="B14:R14"/>
@@ -4057,6 +4075,12 @@
     <mergeCell ref="A41:T41"/>
     <mergeCell ref="A42:T42"/>
     <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
